--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Documento de Ventas.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Documento de Ventas.xlsx
@@ -12,27 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>FECHA DE EMISION DEL COMPROBANTE DE PAGO O DOCUMENTO</t>
-  </si>
-  <si>
-    <t>FECHA DE VENCIMIENTO O FECHA DE PAGO</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>N° SERIE/N° SERIE MAQ REGIS</t>
-  </si>
-  <si>
-    <t>NUMERO</t>
-  </si>
-  <si>
-    <t>APELLIDOS Y NOMBRES, DENOMINACION O RAZON SOCIAL</t>
-  </si>
-  <si>
-    <t>VALOR FACTURADO DE LA EXPORTACION</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>CORRELATIVO Aldasa - Chiclayo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>ENCARGADO(A)</t>
+  </si>
+  <si>
+    <t>BOLETAS</t>
+  </si>
+  <si>
+    <t>FACTURAS</t>
+  </si>
+  <si>
+    <t>NOTA DE CREDITO</t>
+  </si>
+  <si>
+    <t>ANULADAS</t>
+  </si>
+  <si>
+    <t>19/09/2023</t>
+  </si>
+  <si>
+    <t>B003-00000245</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>joan</t>
+  </si>
+  <si>
+    <t>B003-00000246</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>23/09/2023</t>
+  </si>
+  <si>
+    <t>B003-00000247</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
   </si>
 </sst>
 </file>
@@ -54,7 +90,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="13.0"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,15 +149,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.1875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.43359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.1953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="32.73046875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.98046875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.1953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.98046875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="63.59375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="44.7734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.26953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.9375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.2265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -135,25 +169,122 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s" s="2">
         <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>2</v>
       </c>
       <c r="G1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="H1" t="s" s="2">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>6</v>
       </c>
+      <c r="D2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/fileAttachments/Reporte de Documento de Ventas.xlsx
+++ b/src/main/webapp/WEB-INF/fileAttachments/Reporte de Documento de Ventas.xlsx
@@ -12,11 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>FECHA</t>
   </si>
   <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>MANZANA</t>
+  </si>
+  <si>
+    <t>LOTE</t>
+  </si>
+  <si>
+    <t>DETALLE</t>
+  </si>
+  <si>
     <t>CORRELATIVO Aldasa - Chiclayo</t>
   </si>
   <si>
@@ -41,34 +56,7 @@
     <t>ANULADAS</t>
   </si>
   <si>
-    <t>19/09/2023</t>
-  </si>
-  <si>
-    <t>B003-00000245</t>
-  </si>
-  <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>joan</t>
-  </si>
-  <si>
-    <t>B003-00000246</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
-    <t>23/09/2023</t>
-  </si>
-  <si>
-    <t>B003-00000247</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
-    <t>4000.00</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -133,7 +121,9 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" wrapText="true"/>
     </xf>
@@ -149,13 +139,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.26953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="17.375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.9375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.2265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.98046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.26953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="17.375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.9375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="2.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -169,121 +157,87 @@
         <v>2</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>7</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s" s="1">
+      <c r="K3" t="s" s="1">
         <v>14</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" t="s" s="1">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
